--- a/protocol/错误码.xlsx
+++ b/protocol/错误码.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>错误码</t>
   </si>
@@ -101,18 +101,6 @@
     <t>名字特殊字符</t>
   </si>
   <si>
-    <t>NO_MONEY</t>
-  </si>
-  <si>
-    <t>没有钱</t>
-  </si>
-  <si>
-    <t>CONNECT_ERROR</t>
-  </si>
-  <si>
-    <t>服务器链接失败</t>
-  </si>
-  <si>
     <t>GAME_CREATE_ERROR</t>
   </si>
   <si>
@@ -165,6 +153,48 @@
   </si>
   <si>
     <t>拒绝解散房间</t>
+  </si>
+  <si>
+    <t>NOT_YOUR_TURN</t>
+  </si>
+  <si>
+    <t>没轮到你</t>
+  </si>
+  <si>
+    <t>NOT_SAME_TYPE</t>
+  </si>
+  <si>
+    <t>牌型不符</t>
+  </si>
+  <si>
+    <t>SMALLER</t>
+  </si>
+  <si>
+    <t>牌比上家小</t>
+  </si>
+  <si>
+    <t>NULL_REJECT</t>
+  </si>
+  <si>
+    <t>不允许不出牌</t>
+  </si>
+  <si>
+    <t>NOT_LANDLORD</t>
+  </si>
+  <si>
+    <t>你不是地主</t>
+  </si>
+  <si>
+    <t>MINGPAI_FORBIDDEN</t>
+  </si>
+  <si>
+    <t>不能明牌</t>
+  </si>
+  <si>
+    <t>FIRST_ROUND</t>
+  </si>
+  <si>
+    <t>第一轮</t>
   </si>
 </sst>
 </file>
@@ -490,6 +520,61 @@
         <v>50</v>
       </c>
     </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="B26" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="B27" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="B28" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="B29" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="B30" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" t="s">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/protocol/错误码.xlsx
+++ b/protocol/错误码.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t>错误码</t>
   </si>
@@ -195,6 +195,18 @@
   </si>
   <si>
     <t>第一轮</t>
+  </si>
+  <si>
+    <t>FIGHT_TIME_PASS</t>
+  </si>
+  <si>
+    <t>时间过期</t>
+  </si>
+  <si>
+    <t>FIGHT_MORE_CARD</t>
+  </si>
+  <si>
+    <t>牌多了一张，有问题</t>
   </si>
 </sst>
 </file>
@@ -575,6 +587,28 @@
         <v>60</v>
       </c>
     </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="B31" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="B32" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" t="s">
+        <v>64</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/protocol/错误码.xlsx
+++ b/protocol/错误码.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <si>
     <t>错误码</t>
   </si>
@@ -207,6 +207,12 @@
   </si>
   <si>
     <t>牌多了一张，有问题</t>
+  </si>
+  <si>
+    <t>RACE_JOIN_FAILED</t>
+  </si>
+  <si>
+    <t>比赛加入失败</t>
   </si>
 </sst>
 </file>
@@ -609,6 +615,17 @@
         <v>64</v>
       </c>
     </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="B33" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" t="s">
+        <v>66</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/protocol/错误码.xlsx
+++ b/protocol/错误码.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
     <t>错误码</t>
   </si>
@@ -213,6 +213,12 @@
   </si>
   <si>
     <t>比赛加入失败</t>
+  </si>
+  <si>
+    <t>NOT_RANDIOOMONEY_ENOUGH</t>
+  </si>
+  <si>
+    <t>燃点币不足</t>
   </si>
 </sst>
 </file>
@@ -626,6 +632,17 @@
         <v>66</v>
       </c>
     </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="B34" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" t="s">
+        <v>68</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/protocol/错误码.xlsx
+++ b/protocol/错误码.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <si>
     <t>错误码</t>
   </si>
@@ -141,6 +141,12 @@
   </si>
   <si>
     <t>游戏不存在</t>
+  </si>
+  <si>
+    <t>GAME_CARD_NOT_EXIST</t>
+  </si>
+  <si>
+    <t>卡牌不存在</t>
   </si>
   <si>
     <t>GAME_EXITING</t>
@@ -643,6 +649,17 @@
         <v>68</v>
       </c>
     </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="B35" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" t="s">
+        <v>70</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
